--- a/downloaded_files/GENS207_Lecture-35100.xlsx
+++ b/downloaded_files/GENS207_Lecture-35100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -63,7 +63,10 @@
     <x:t>1220303</x:t>
   </x:si>
   <x:si>
-    <x:t>احمد محمد عزت عطية</x:t>
+    <x:t>احمد محمد عزت عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
     <x:t>4230192</x:t>
@@ -806,7 +809,9 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="E5" s="3">
         <x:v>45908.4226689005</x:v>
       </x:c>
@@ -831,13 +836,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>45906.6643682523</x:v>
@@ -863,13 +868,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:v>45909.9140157755</x:v>
@@ -895,13 +900,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45906.6652700231</x:v>
@@ -927,13 +932,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45908.4159505787</x:v>
@@ -959,13 +964,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45906.4164278935</x:v>
@@ -991,13 +996,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45907.4204493056</x:v>
@@ -1023,13 +1028,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45909.5387112616</x:v>
@@ -1055,13 +1060,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45907.4201690162</x:v>
@@ -1087,13 +1092,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45907.6657648958</x:v>
@@ -1119,13 +1124,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45906.6646741551</x:v>
@@ -1151,13 +1156,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45914.4043956366</x:v>
@@ -1183,13 +1188,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45906.6653831018</x:v>
@@ -1215,13 +1220,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.4145929051</x:v>
@@ -1247,13 +1252,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45909.8251966088</x:v>
@@ -1279,13 +1284,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45907.6651739583</x:v>
@@ -1311,13 +1316,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.414475463</x:v>

--- a/downloaded_files/GENS207_Lecture-35100.xlsx
+++ b/downloaded_files/GENS207_Lecture-35100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Ammar Waleed Mohamed Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فرح احمد كمال حامد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farah Ahmed Kamal Hamed</x:t>
   </x:si>
   <x:si>
     <x:t>4240039</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -636,7 +645,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.380625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.480625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1069,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45927.4149992245</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.8251966088</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45927.5481566319</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS207_Lecture-35100.xlsx
+++ b/downloaded_files/GENS207_Lecture-35100.xlsx
@@ -60,15 +60,6 @@
     <x:t>IBRAHIM MOHAMED IBRAHIM ELDESOUKY IBRAHIM</x:t>
   </x:si>
   <x:si>
-    <x:t>1220303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عزت عطيه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230192</x:t>
   </x:si>
   <x:si>
@@ -184,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mostafa Ahmed abdelrazek Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حمدي عوض السيد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud hamdy awad elsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1220105</x:t>
@@ -822,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4226689005</x:v>
+        <x:v>45906.6643682523</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6643682523</x:v>
+        <x:v>45909.9140157755</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.9140157755</x:v>
+        <x:v>45906.6652700231</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6652700231</x:v>
+        <x:v>45908.4159505787</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4159505787</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45907.4204493056</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4204493056</x:v>
+        <x:v>45909.5387112616</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.5387112616</x:v>
+        <x:v>45927.4149992245</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4149992245</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45927.8948923264</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/GENS207_Lecture-35100.xlsx
+++ b/downloaded_files/GENS207_Lecture-35100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>abdallah mohamed gamal eldin ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على الدين محمد احمد كمال على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALIELDIN MOHAMED AHMED KAMAL ALI</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230071</x:t>
   </x:si>
   <x:si>
@@ -184,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud hamdy awad elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي محمود فاروق محمد الدامي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa mahmoud farouk mohamed eldamy</x:t>
   </x:si>
   <x:si>
     <x:t>1220105</x:t>
@@ -335,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1014,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.5387112616</x:v>
+        <x:v>45928.5863456366</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4149992245</x:v>
+        <x:v>45909.5387112616</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45927.4149992245</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.8948923264</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45927.8948923264</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.5481566319</x:v>
+        <x:v>45928.588215081</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45927.5481566319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1401,70 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.6651739583</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS207_Lecture-35100.xlsx
+++ b/downloaded_files/GENS207_Lecture-35100.xlsx
@@ -42,15 +42,6 @@
     <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
   </x:si>
   <x:si>
-    <x:t>1220219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أندرو وليد جرجس كيرلس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Walid Girgis</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220114</x:t>
   </x:si>
   <x:si>
@@ -58,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>IBRAHIM MOHAMED IBRAHIM ELDESOUKY IBRAHIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اندرو نادر لبيب صبحي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Nader Labib Sobhy</x:t>
   </x:si>
   <x:si>
     <x:t>4230192</x:t>
@@ -776,7 +776,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45906.6656764236</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -808,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6656764236</x:v>
+        <x:v>45928.6793274653</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>

--- a/downloaded_files/GENS207_Lecture-35100.xlsx
+++ b/downloaded_files/GENS207_Lecture-35100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mostafa Ahmed abdelrazek Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد مصطفى محمد سعيد محمد شرويد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mostafa Mohamed Said Mohamed Shrweed</x:t>
   </x:si>
   <x:si>
     <x:t>1210028</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -662,7 +671,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.380625000000002" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.480625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="48.750625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.8948923264</x:v>
+        <x:v>45929.4346354514</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.588215081</x:v>
+        <x:v>45927.8948923264</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45928.588215081</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.5481566319</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45927.5481566319</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS207_Lecture-35100.xlsx
+++ b/downloaded_files/GENS207_Lecture-35100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أندرو وليد جرجس كيرلس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Walid Girgis</x:t>
   </x:si>
   <x:si>
     <x:t>1220114</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -785,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6656764236</x:v>
+        <x:v>45933.5315861111</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -817,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45928.6793274653</x:v>
+        <x:v>45906.6656764236</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6643682523</x:v>
+        <x:v>45928.6793274653</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.9140157755</x:v>
+        <x:v>45906.6643682523</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6652700231</x:v>
+        <x:v>45909.9140157755</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4159505787</x:v>
+        <x:v>45906.6652700231</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45908.4159505787</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4204493056</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.5863456366</x:v>
+        <x:v>45907.4204493056</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.5387112616</x:v>
+        <x:v>45928.5863456366</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4149992245</x:v>
+        <x:v>45909.5387112616</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45927.4149992245</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653831018</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45929.4346354514</x:v>
+        <x:v>45906.6653831018</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.8948923264</x:v>
+        <x:v>45929.4346354514</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.588215081</x:v>
+        <x:v>45927.8948923264</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45928.588215081</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.5481566319</x:v>
+        <x:v>45907.4145929051</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45927.5481566319</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.414475463</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
